--- a/reports/PP_2_6_3_B2_P2_2025-08-25.xlsx
+++ b/reports/PP_2_6_3_B2_P2_2025-08-25.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,104 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Playwright_test_set</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>TEST-34881</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>single positional indexer is out-of-bounds</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:31:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Playwright_test_set</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>TEST-34881</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Locator.click: Target page, context or browser has been closed
+Call log:
+  - waiting for get_by_role("button", name="arrow_drop_down", exact=True)
+    - locator resolved to &lt;button mat-button="" disabled="true" aria-haspopup="menu" aria-expanded="false" _ngcontent-ng-c2021083747="" mat-ripple-loader-disabled="" mat-ripple-loader-uninitialized="" mat-ripple-loader-class-name="mat-mdc-button-ripple" class="mat-mdc-menu-trigger btn__tbl-status__icon-wrapper mdc-button mat-mdc-button mat-unthemed mat-mdc-button-base mat-mdc-button-disabled"&gt;…&lt;/button&gt;
+  - attempting click action
+    2 × waiting for element to be visible, enabled and stable
+      - element is not enabled
+    - retrying click action
+    - waiting 20ms
+    2 × waiting for element to be visible, enabled and stable
+      - element is not enabled
+    - retrying click action
+      - waiting 100ms
+    8 × waiting for element to be visible, enabled and stable
+      - element is not enabled
+    - retrying click action
+      - waiting 500ms
+</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:33:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Playwright_test_set</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>TEST-34881</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>'PlayerTab' object has no attribute 'player_card_position'</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2025-08-25 16:35:36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
